--- a/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Com Tentativa 1 - Material + Ano (Do Zero).xlsx
+++ b/Resultados/Material + Ano + Estrutura/ResNet/Tentativa 1/Com Tentativa 1 - Material + Ano (Do Zero).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD0A20-F378-4C65-8F4E-B45684812D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9C4E2-775F-4084-8382-549D28271230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -628,6 +628,95 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -721,95 +810,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1300,23 +1300,23 @@
   <autoFilter ref="A1:J12" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!N3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1644,8 +1644,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,8 +1978,8 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,7 +2225,9 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2254,7 +2256,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,9 +2892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2901,7 +2903,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
@@ -2910,7 +2912,7 @@
     <col min="11" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6328125" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
@@ -4538,24 +4540,24 @@
   <sheetPr codeName="Folha7"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
